--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06726C1E-5DB6-436E-B706-237154973A6D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B419C5-4BE4-45FB-8C00-8FBF1FAD3F01}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>testr</t>
+  </si>
+  <si>
+    <t>testtt</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -398,6 +404,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
